--- a/tests-doc/Тест-кейсы формы авторизации.xlsx
+++ b/tests-doc/Тест-кейсы формы авторизации.xlsx
@@ -12,6 +12,8 @@
     <sheet state="visible" name="Authourization-3-Number" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Authourization-3-Mail" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="Authourization-3-LS" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Authourization-4-Number" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="Authourization-4-Mail" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="133">
   <si>
     <t>Тест-кейс ID</t>
   </si>
@@ -48,115 +50,115 @@
     <t>Тестировщик</t>
   </si>
   <si>
+    <t>Онлайм Web</t>
+  </si>
+  <si>
+    <t>https://my.rt.ru/</t>
+  </si>
+  <si>
+    <t>Старт Web</t>
+  </si>
+  <si>
+    <t>https://start.rt.ru/</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Авторизация по номеру лицевого счета</t>
+  </si>
+  <si>
+    <t>Умный дом Web</t>
+  </si>
+  <si>
+    <t>https://lk.smarthome.rt.ru/</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Проверить возможность корретной авторизации по номеру лицевого счета</t>
+  </si>
+  <si>
+    <t>Ключ Web</t>
+  </si>
+  <si>
+    <t>https://key.rt.ru/</t>
+  </si>
+  <si>
+    <t>Предусловия</t>
+  </si>
+  <si>
+    <t>Пользователь не авторизован. Существует аккаунт с заданным номером лицевого счета и паролем. Открыта форма авторизации. В форме авторизации выбран раздел "Лицевой счет".</t>
+  </si>
+  <si>
+    <t>Шаги</t>
+  </si>
+  <si>
+    <t>Тестовые данные</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат</t>
+  </si>
+  <si>
+    <t>1) Ввести номер лицевого счета в поле для лицевого счета</t>
+  </si>
+  <si>
+    <t>Номер лицевого счета, соответствующий аккаунту</t>
+  </si>
+  <si>
+    <t>Номер лицевого счета введен.</t>
+  </si>
+  <si>
+    <t>2) Ввести пароль в поле для пароля</t>
+  </si>
+  <si>
+    <t>Пароль, соответствующий аккаунту с введенным номером лицевого счета</t>
+  </si>
+  <si>
+    <t>Пароль введен</t>
+  </si>
+  <si>
+    <t>3) Нажать кнопку "Войти"</t>
+  </si>
+  <si>
+    <t>Пользователь авторизован</t>
+  </si>
+  <si>
+    <t>Authorization-1-Number</t>
+  </si>
+  <si>
+    <t>доступно</t>
+  </si>
+  <si>
+    <t>недоступно</t>
+  </si>
+  <si>
+    <t>Авторизация по номеру телефона</t>
+  </si>
+  <si>
+    <t>Проверить возможность корретной авторизации по номеру телефона</t>
+  </si>
+  <si>
+    <t>Пользователь не авторизован. Существует аккаунт с заданным номером телефона и паролем.  Открыта форма авторизации. В форме авторизации выбран раздел "Телефон".</t>
+  </si>
+  <si>
+    <t>1) Ввести номер телефона в поле для телефона</t>
+  </si>
+  <si>
+    <t>Номер телефона, соответствующий аккаунту</t>
+  </si>
+  <si>
+    <t>Номер телефона введен.</t>
+  </si>
+  <si>
+    <t>Пароль, соответствующий аккаунту с введенным номером телефона</t>
+  </si>
+  <si>
+    <t>Authorization-1-Mail</t>
+  </si>
+  <si>
     <t>Шариков П. П.</t>
-  </si>
-  <si>
-    <t>Онлайм Web</t>
-  </si>
-  <si>
-    <t>https://my.rt.ru/</t>
-  </si>
-  <si>
-    <t>Старт Web</t>
-  </si>
-  <si>
-    <t>https://start.rt.ru/</t>
-  </si>
-  <si>
-    <t>Название</t>
-  </si>
-  <si>
-    <t>Авторизация по номеру лицевого счета</t>
-  </si>
-  <si>
-    <t>Умный дом Web</t>
-  </si>
-  <si>
-    <t>https://lk.smarthome.rt.ru/</t>
-  </si>
-  <si>
-    <t>Описание</t>
-  </si>
-  <si>
-    <t>Проверить возможность корретной авторизации по номеру лицевого счета</t>
-  </si>
-  <si>
-    <t>Ключ Web</t>
-  </si>
-  <si>
-    <t>https://key.rt.ru/</t>
-  </si>
-  <si>
-    <t>Предусловия</t>
-  </si>
-  <si>
-    <t>Пользователь не авторизован. Существует аккаунт с заданным номером лицевого счета и паролем. Открыта форма авторизации. В форме авторизации выбран раздел "Лицевой счет".</t>
-  </si>
-  <si>
-    <t>Шаги</t>
-  </si>
-  <si>
-    <t>Тестовые данные</t>
-  </si>
-  <si>
-    <t>Ожидаемый результат</t>
-  </si>
-  <si>
-    <t>1) Ввести номер лицевого счета в поле для лицевого счета</t>
-  </si>
-  <si>
-    <t>Номер лицевого счета, соответствующий аккаунту</t>
-  </si>
-  <si>
-    <t>Номер лицевого счета введен.</t>
-  </si>
-  <si>
-    <t>2) Ввести пароль в поле для пароля</t>
-  </si>
-  <si>
-    <t>Пароль, соответствующий аккаунту с введенным номером лицевого счета</t>
-  </si>
-  <si>
-    <t>Пароль введен</t>
-  </si>
-  <si>
-    <t>3) Нажать кнопку "Войти"</t>
-  </si>
-  <si>
-    <t>Пользователь авторизован</t>
-  </si>
-  <si>
-    <t>Authorization-1-Number</t>
-  </si>
-  <si>
-    <t>доступно</t>
-  </si>
-  <si>
-    <t>недоступно</t>
-  </si>
-  <si>
-    <t>Авторизация по номеру телефона</t>
-  </si>
-  <si>
-    <t>Проверить возможность корретной авторизации по номеру телефона</t>
-  </si>
-  <si>
-    <t>Пользователь не авторизован. Существует аккаунт с заданным номером телефона и паролем.  Открыта форма авторизации. В форме авторизации выбран раздел "Телефон".</t>
-  </si>
-  <si>
-    <t>1) Ввести номер телефона в поле для телефона</t>
-  </si>
-  <si>
-    <t>Номер телефона, соответствующий аккаунту</t>
-  </si>
-  <si>
-    <t>Номер телефона введен.</t>
-  </si>
-  <si>
-    <t>Пароль, соответствующий аккаунту с введенным номером телефона</t>
-  </si>
-  <si>
-    <t>Authorization-1-Mail</t>
   </si>
   <si>
     <t>Авторизация по электронной почте</t>
@@ -423,6 +425,9 @@
     </r>
   </si>
   <si>
+    <t>Поле ввода телефона не проверяется, так как формат ввода не позволяет ввести лицевой счет полностью.</t>
+  </si>
+  <si>
     <t>1) Перейти в раздел "Почта"</t>
   </si>
   <si>
@@ -448,6 +453,57 @@
   </si>
   <si>
     <t>Форма осталась в режиме ввода лицевого счёта</t>
+  </si>
+  <si>
+    <t>Authorization-4-Number</t>
+  </si>
+  <si>
+    <t>Негативный</t>
+  </si>
+  <si>
+    <t>Предельные значения полей в форме авторизации с логином</t>
+  </si>
+  <si>
+    <t>Проверить возможность корретного поведения системы при введении некорретных значений</t>
+  </si>
+  <si>
+    <t>Пользователь не авторизован. Открыта форма авторизации. Выбран начальный раздел "Логин".</t>
+  </si>
+  <si>
+    <t>Ввести логин в поле для логина</t>
+  </si>
+  <si>
+    <t>Логин длиной в 10000 символов</t>
+  </si>
+  <si>
+    <t>Логин введен</t>
+  </si>
+  <si>
+    <t>Ввести пароль в поле для пароля</t>
+  </si>
+  <si>
+    <t>Пароль из китайских символов</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку "Войти"</t>
+  </si>
+  <si>
+    <t>Отображается ошибка "Неверный логин или пароль"</t>
+  </si>
+  <si>
+    <t>Authorization-4-Mail</t>
+  </si>
+  <si>
+    <t>Предельные значения полей в форме авторизации с почтой</t>
+  </si>
+  <si>
+    <t>Пользователь не авторизован. Открыта форма авторизации. Выбран начальный раздел "Почта".</t>
+  </si>
+  <si>
+    <t>Почта - "123@321.23@"</t>
+  </si>
+  <si>
+    <t>sql-инъекция</t>
   </si>
 </sst>
 </file>
@@ -610,6 +666,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -894,17 +958,15 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="6"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -914,52 +976,52 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" ht="47.25" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" ht="59.25" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" ht="95.25" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
@@ -976,13 +1038,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="4"/>
@@ -991,13 +1053,13 @@
     </row>
     <row r="10" ht="48.0" customHeight="1">
       <c r="A10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -1006,13 +1068,13 @@
     </row>
     <row r="11" ht="45.0" customHeight="1">
       <c r="A11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -1021,10 +1083,10 @@
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -1054,6 +1116,498 @@
     <row r="16">
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="G3"/>
+    <hyperlink r:id="rId3" ref="G4"/>
+    <hyperlink r:id="rId4" ref="G5"/>
+    <hyperlink r:id="rId5" ref="G6"/>
+  </hyperlinks>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.25"/>
+    <col customWidth="1" min="2" max="2" width="27.5"/>
+    <col customWidth="1" min="3" max="3" width="24.0"/>
+    <col customWidth="1" min="6" max="6" width="34.25"/>
+    <col customWidth="1" min="7" max="7" width="19.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="47.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="66.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="63.0" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" ht="54.75" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="54.75" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="20"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="G3"/>
+    <hyperlink r:id="rId3" ref="G4"/>
+    <hyperlink r:id="rId4" ref="G5"/>
+    <hyperlink r:id="rId5" ref="G6"/>
+  </hyperlinks>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.25"/>
+    <col customWidth="1" min="2" max="2" width="27.5"/>
+    <col customWidth="1" min="3" max="3" width="24.0"/>
+    <col customWidth="1" min="6" max="6" width="34.25"/>
+    <col customWidth="1" min="7" max="7" width="19.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="47.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="66.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="63.0" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" ht="54.75" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="54.75" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="20"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
@@ -1097,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1126,27 +1680,25 @@
         <v>7</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="6"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -1156,52 +1708,52 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" ht="47.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" ht="59.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" ht="81.0" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
@@ -1218,13 +1770,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="4"/>
@@ -1233,13 +1785,13 @@
     </row>
     <row r="10" ht="48.0" customHeight="1">
       <c r="A10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -1248,13 +1800,13 @@
     </row>
     <row r="11" ht="45.0" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -1263,10 +1815,10 @@
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -1339,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1355,9 +1907,7 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="6"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
@@ -1368,7 +1918,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -1376,19 +1926,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -1398,15 +1948,15 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" ht="47.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>46</v>
@@ -1415,15 +1965,15 @@
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" ht="59.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>47</v>
@@ -1432,15 +1982,15 @@
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" ht="84.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>48</v>
@@ -1460,13 +2010,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="4"/>
@@ -1490,13 +2040,13 @@
     </row>
     <row r="11" ht="45.0" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -1505,10 +2055,10 @@
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -1610,27 +2160,25 @@
         <v>7</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="6"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -1640,15 +2188,15 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" ht="47.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>53</v>
@@ -1657,15 +2205,15 @@
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" ht="59.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>54</v>
@@ -1674,15 +2222,15 @@
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" ht="67.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>55</v>
@@ -1702,13 +2250,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="4"/>
@@ -1732,13 +2280,13 @@
     </row>
     <row r="11" ht="45.0" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -1747,10 +2295,10 @@
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -1853,27 +2401,25 @@
         <v>7</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="6"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -1883,15 +2429,15 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" ht="47.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>60</v>
@@ -1900,15 +2446,15 @@
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" ht="59.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>61</v>
@@ -1917,15 +2463,15 @@
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" ht="63.0" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>62</v>
@@ -1945,13 +2491,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="4"/>
@@ -2096,29 +2642,27 @@
         <v>7</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -2128,15 +2672,15 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" ht="47.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>73</v>
@@ -2145,15 +2689,15 @@
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" ht="69.0" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>74</v>
@@ -2162,15 +2706,15 @@
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" ht="63.0" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>62</v>
@@ -2190,13 +2734,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="4"/>
@@ -2373,29 +2917,27 @@
         <v>7</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -2405,15 +2947,15 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" ht="47.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>73</v>
@@ -2422,15 +2964,15 @@
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" ht="66.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>88</v>
@@ -2439,15 +2981,15 @@
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" ht="63.0" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>62</v>
@@ -2467,13 +3009,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="4"/>
@@ -2649,29 +3191,27 @@
         <v>7</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -2681,15 +3221,15 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" ht="47.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>73</v>
@@ -2698,15 +3238,15 @@
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" ht="66.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>97</v>
@@ -2715,15 +3255,15 @@
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" ht="63.0" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>62</v>
@@ -2743,13 +3283,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="4"/>
@@ -2925,29 +3465,27 @@
         <v>7</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -2957,15 +3495,15 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" ht="47.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>73</v>
@@ -2974,32 +3512,34 @@
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" ht="66.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" ht="63.0" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>62</v>
@@ -3019,13 +3559,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="4"/>
@@ -3034,7 +3574,7 @@
     </row>
     <row r="10" ht="54.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14" t="s">
@@ -3046,13 +3586,13 @@
     </row>
     <row r="11" ht="54.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -3061,7 +3601,7 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14" t="s">
@@ -3074,13 +3614,13 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
@@ -3089,7 +3629,7 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14" t="s">
@@ -3102,13 +3642,13 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="4"/>

--- a/tests-doc/Тест-кейсы формы авторизации.xlsx
+++ b/tests-doc/Тест-кейсы формы авторизации.xlsx
@@ -12,8 +12,10 @@
     <sheet state="visible" name="Authourization-3-Number" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Authourization-3-Mail" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="Authourization-3-LS" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Authourization-4-Number" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="Authourization-4-Login" sheetId="10" r:id="rId13"/>
     <sheet state="visible" name="Authourization-4-Mail" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="Authourization-4-Number" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="Authourization-4-LS" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="147">
   <si>
     <t>Тест-кейс ID</t>
   </si>
@@ -455,55 +457,97 @@
     <t>Форма осталась в режиме ввода лицевого счёта</t>
   </si>
   <si>
+    <t>Authorization-4-Login</t>
+  </si>
+  <si>
+    <t>Негативный</t>
+  </si>
+  <si>
+    <t>Предельные значения полей в форме авторизации с логином</t>
+  </si>
+  <si>
+    <t>Проверить возможность корретного поведения системы при введении некорретных значений</t>
+  </si>
+  <si>
+    <t>Пользователь не авторизован. Открыта форма авторизации. Выбран начальный раздел "Логин".</t>
+  </si>
+  <si>
+    <t>Ввести логин в поле для логина</t>
+  </si>
+  <si>
+    <t>Логин длиной в 10000 символов</t>
+  </si>
+  <si>
+    <t>Логин введен</t>
+  </si>
+  <si>
+    <t>Ввести пароль в поле для пароля</t>
+  </si>
+  <si>
+    <t>Пароль из китайских символов</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку "Войти"</t>
+  </si>
+  <si>
+    <t>Отображается ошибка "Неверный логин или пароль"</t>
+  </si>
+  <si>
+    <t>Authorization-4-Mail</t>
+  </si>
+  <si>
+    <t>Предельные значения полей в форме авторизации с почтой</t>
+  </si>
+  <si>
+    <t>Пользователь не авторизован. Открыта форма авторизации. Выбран начальный раздел "Почта".</t>
+  </si>
+  <si>
+    <t>Почта - "123@321.23@"</t>
+  </si>
+  <si>
+    <t>Почта введена</t>
+  </si>
+  <si>
+    <t>sql-инъекция</t>
+  </si>
+  <si>
     <t>Authorization-4-Number</t>
   </si>
   <si>
-    <t>Негативный</t>
-  </si>
-  <si>
-    <t>Предельные значения полей в форме авторизации с логином</t>
-  </si>
-  <si>
-    <t>Проверить возможность корретного поведения системы при введении некорретных значений</t>
-  </si>
-  <si>
-    <t>Пользователь не авторизован. Открыта форма авторизации. Выбран начальный раздел "Логин".</t>
-  </si>
-  <si>
-    <t>Ввести логин в поле для логина</t>
-  </si>
-  <si>
-    <t>Логин длиной в 10000 символов</t>
-  </si>
-  <si>
-    <t>Логин введен</t>
-  </si>
-  <si>
-    <t>Ввести пароль в поле для пароля</t>
-  </si>
-  <si>
-    <t>Пароль из китайских символов</t>
-  </si>
-  <si>
-    <t>Нажать на кнопку "Войти"</t>
-  </si>
-  <si>
-    <t>Отображается ошибка "Неверный логин или пароль"</t>
-  </si>
-  <si>
-    <t>Authorization-4-Mail</t>
-  </si>
-  <si>
-    <t>Предельные значения полей в форме авторизации с почтой</t>
-  </si>
-  <si>
-    <t>Пользователь не авторизован. Открыта форма авторизации. Выбран начальный раздел "Почта".</t>
-  </si>
-  <si>
-    <t>Почта - "123@321.23@"</t>
-  </si>
-  <si>
-    <t>sql-инъекция</t>
+    <t>Предельные значения полей в форме авторизации с номером телефона</t>
+  </si>
+  <si>
+    <t>Пользователь не авторизован. Открыта форма авторизации. Выбран начальный раздел "Номер телефона".</t>
+  </si>
+  <si>
+    <t>Ввести номер телефона в поле для номера телефона</t>
+  </si>
+  <si>
+    <t>Номер телефона - "+60000000000"</t>
+  </si>
+  <si>
+    <t>Номер телефона введен</t>
+  </si>
+  <si>
+    <t>Пароль длиной 1000 символов</t>
+  </si>
+  <si>
+    <t>Authorization-4-LS</t>
+  </si>
+  <si>
+    <t>Пользователь не авторизован. Открыта форма авторизации. Выбран начальный раздел "Номер лицевого счета".</t>
+  </si>
+  <si>
+    <t>Ввести номер лицевого счета в поле для номера лицевого счета</t>
+  </si>
+  <si>
+    <t>Номер лицевого счета - "222222222222"</t>
+  </si>
+  <si>
+    <t>Номер лицевого счета введен</t>
+  </si>
+  <si>
+    <t>Пароль из символов юникода - "■ □ ▪ ▫ ▬ ▲►▼◄◊ ○ ◌ ● ◘ ◙ ◦ ◽ ◾"</t>
   </si>
 </sst>
 </file>
@@ -674,6 +718,14 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1545,7 +1597,7 @@
         <v>131</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1556,7 +1608,499 @@
         <v>124</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="20"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="G3"/>
+    <hyperlink r:id="rId3" ref="G4"/>
+    <hyperlink r:id="rId4" ref="G5"/>
+    <hyperlink r:id="rId5" ref="G6"/>
+  </hyperlinks>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.25"/>
+    <col customWidth="1" min="2" max="2" width="27.5"/>
+    <col customWidth="1" min="3" max="3" width="24.0"/>
+    <col customWidth="1" min="6" max="6" width="34.25"/>
+    <col customWidth="1" min="7" max="7" width="19.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="47.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="66.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="63.0" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" ht="54.75" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="54.75" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="20"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="G3"/>
+    <hyperlink r:id="rId3" ref="G4"/>
+    <hyperlink r:id="rId4" ref="G5"/>
+    <hyperlink r:id="rId5" ref="G6"/>
+  </hyperlinks>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.25"/>
+    <col customWidth="1" min="2" max="2" width="27.5"/>
+    <col customWidth="1" min="3" max="3" width="24.0"/>
+    <col customWidth="1" min="6" max="6" width="34.25"/>
+    <col customWidth="1" min="7" max="7" width="19.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="47.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="66.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="63.0" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" ht="54.75" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="54.75" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>31</v>
